--- a/Fase2/UML/Especificação de Use Cases/Remover Pintor.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Remover Pintor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2225578E-B07B-4C1D-A317-EAC9039CFEA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC9BC7-EEF7-4876-94E4-0D4D9EDAD942}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{8E670E67-EAD9-4799-B5CC-2311FD52647E}"/>
   </bookViews>
@@ -96,32 +96,32 @@
     <t>Valida dados do Pintor</t>
   </si>
   <si>
+    <t>Indica que o pintor já existe no sistema</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
+  </si>
+  <si>
+    <t>Remover Pintor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remover Pintor do sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É removido pintor da lista de trabalhadores  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina dados do Pintor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrementa número de Pintores </t>
+  </si>
+  <si>
+    <t>Informa que o Pintor foi removido</t>
+  </si>
+  <si>
     <t>Excepção 1               (passo 2)
-[Pintor já existe no sistema]</t>
-  </si>
-  <si>
-    <t>Indica que o pintor já existe no sistema</t>
-  </si>
-  <si>
-    <t>Regressa a 1</t>
-  </si>
-  <si>
-    <t>Remover Pintor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remover Pintor do sistema </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É removido pintor da lista de trabalhadores  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elimina dados do Pintor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrementa número de Pintores </t>
-  </si>
-  <si>
-    <t>Informa que o Pintor foi removido</t>
+[Pintor Existente]</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,16 +647,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Fase2/UML/Especificação de Use Cases/Remover Pintor.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Remover Pintor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC9BC7-EEF7-4876-94E4-0D4D9EDAD942}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2225578E-B07B-4C1D-A317-EAC9039CFEA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{8E670E67-EAD9-4799-B5CC-2311FD52647E}"/>
   </bookViews>
@@ -96,6 +96,10 @@
     <t>Valida dados do Pintor</t>
   </si>
   <si>
+    <t>Excepção 1               (passo 2)
+[Pintor já existe no sistema]</t>
+  </si>
+  <si>
     <t>Indica que o pintor já existe no sistema</t>
   </si>
   <si>
@@ -118,10 +122,6 @@
   </si>
   <si>
     <t>Informa que o Pintor foi removido</t>
-  </si>
-  <si>
-    <t>Excepção 1               (passo 2)
-[Pintor Existente]</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,16 +647,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
